--- a/ig/ch-epr-term/ValueSet-EprAuditTrailConsumptionEventType.xlsx
+++ b/ig/ch-epr-term/ValueSet-EprAuditTrailConsumptionEventType.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -132,6 +132,12 @@
     <t>Document removal</t>
   </si>
   <si>
+    <t>ATC_DOC_SEARCH</t>
+  </si>
+  <si>
+    <t>Document search</t>
+  </si>
+  <si>
     <t>ATC_POL_CREATE_AUT_PART_AL</t>
   </si>
   <si>
@@ -184,6 +190,12 @@
   </si>
   <si>
     <t>Accessing the Patient Audit Record Repository</t>
+  </si>
+  <si>
+    <t>ATC_HPD_GROUP_ENTRY_NOTIFY</t>
+  </si>
+  <si>
+    <t>Entry of healthcare professionals into a group</t>
   </si>
   <si>
     <t/>
@@ -314,10 +326,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -469,7 +481,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -596,15 +608,31 @@
         <v>57</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-term/ValueSet-EprAuditTrailConsumptionEventType.xlsx
+++ b/ig/ch-epr-term/ValueSet-EprAuditTrailConsumptionEventType.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.13.2 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.13.2 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
